--- a/conf/TEMPLATE - SIPP Any asset other than land or property acquired from a connected party.xlsx
+++ b/conf/TEMPLATE - SIPP Any asset other than land or property acquired from a connected party.xlsx
@@ -149,13 +149,13 @@
     <t>Was the transaction supported by an independent valuation?</t>
   </si>
   <si>
+    <t>Has the asset been fully disposed of?</t>
+  </si>
+  <si>
     <t>Was there disposal of shares?</t>
   </si>
   <si>
     <t>If there were disposals of shares what is the total number of shares now held</t>
-  </si>
-  <si>
-    <t>If no disposals of shares were made has the asset been fully disposed of?</t>
   </si>
   <si>
     <r>
@@ -292,12 +292,13 @@
 Mandatory question if disposal of the asset was made.</t>
   </si>
   <si>
+    <t xml:space="preserve">Enter YES or NO.
+</t>
+  </si>
+  <si>
     <t>Min 1 - Max 7. 
-Use characters of 0-9.
-Mandatory question if disposal of the shares was made.</t>
-  </si>
-  <si>
-    <t>Enter YES or NO.
+0-9,999,999  Min 1 - Max 7 Characters of 0-9 
+If the asset has been fully disposed of and there was disposal of shares, then the number of shares now held must equal zero.
 Mandatory question if disposal of the shares was made.</t>
   </si>
 </sst>
@@ -367,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border/>
     <border>
       <right style="thin">
@@ -392,6 +393,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -400,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -430,6 +445,9 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -750,7 +768,7 @@
       <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="8" t="s">
@@ -761,96 +779,96 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4">
-      <c r="D4" s="17"/>
+      <c r="D4" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/conf/TEMPLATE - SIPP Any asset other than land or property acquired from a connected party.xlsx
+++ b/conf/TEMPLATE - SIPP Any asset other than land or property acquired from a connected party.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolgahmrc/Projects/pension-scheme-return-sipp-frontend/conf/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA784EE-96C7-E141-8D37-27243B6F1F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Asset from a connected party" sheetId="1" r:id="rId4"/>
+    <sheet name="Asset from a connected party" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -15,19 +24,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>The questions in this section relate to any asset, other than land or property, acquired from a connected party.</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> 
 Questions that are mandatory are stated in row 2. Notes and hint text is underneath each question to help make sure that there are no errors in the template file upload.
@@ -36,39 +44,36 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">What you need to do
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>Enter your data from row 3 onwards.</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri, Arial"/>
-        <b val="0"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">
 Complete the questions per member marked horizontally across the columns. 
@@ -160,21 +165,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
         <b/>
         <i/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, Arial"/>
       </rPr>
       <t xml:space="preserve">Question help information. </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b val="0"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>This will give you hints or tips to help you to complete the required cells.</t>
     </r>
@@ -224,17 +228,21 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Max of 160 characters
 </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t>Mandatory question if this was an acquisition of shares.</t>
     </r>
@@ -305,47 +313,84 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri, Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -353,7 +398,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -369,16 +414,26 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -388,14 +443,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -410,83 +469,63 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -676,23 +715,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="56.5"/>
+    <col min="1" max="1" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,31 +758,31 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -747,130 +791,124 @@
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4">
-      <c r="D4" s="18"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/conf/TEMPLATE - SIPP Any asset other than land or property acquired from a connected party.xlsx
+++ b/conf/TEMPLATE - SIPP Any asset other than land or property acquired from a connected party.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolgahmrc/Projects/pension-scheme-return-sipp-frontend/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA784EE-96C7-E141-8D37-27243B6F1F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C29E0-0D61-4941-A299-58B6AEB29667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39840" yWindow="2360" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asset from a connected party" sheetId="1" r:id="rId1"/>
@@ -728,7 +728,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD46"/>
+      <selection activeCell="A3" sqref="A3:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/conf/TEMPLATE - SIPP Any asset other than land or property acquired from a connected party.xlsx
+++ b/conf/TEMPLATE - SIPP Any asset other than land or property acquired from a connected party.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolgahmrc/Projects/pension-scheme-return-sipp-frontend/conf/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C29E0-0D61-4941-A299-58B6AEB29667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="39840" yWindow="2360" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Asset from a connected party" sheetId="1" r:id="rId4"/>
+    <sheet name="Asset from a connected party" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -15,19 +24,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>The questions in this section relate to any asset, other than land or property, acquired from a connected party.</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> 
 Questions that are mandatory are stated in row 2. Notes and hint text is underneath each question to help make sure that there are no errors in the template file upload.
@@ -36,39 +44,36 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">What you need to do
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>Enter your data from row 3 onwards.</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri, Arial"/>
-        <b val="0"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">
 Complete the questions per member marked horizontally across the columns. 
@@ -160,21 +165,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
         <b/>
         <i/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, Arial"/>
       </rPr>
       <t xml:space="preserve">Question help information. </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b val="0"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>This will give you hints or tips to help you to complete the required cells.</t>
     </r>
@@ -224,17 +228,21 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Max of 160 characters
 </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t>Mandatory question if this was an acquisition of shares.</t>
     </r>
@@ -305,47 +313,84 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri, Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -353,7 +398,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -369,16 +414,26 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -388,14 +443,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -410,83 +469,63 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -676,23 +715,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="56.5"/>
+    <col min="1" max="1" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,31 +758,31 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -747,130 +791,124 @@
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4">
-      <c r="D4" s="18"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/conf/TEMPLATE - SIPP Any asset other than land or property acquired from a connected party.xlsx
+++ b/conf/TEMPLATE - SIPP Any asset other than land or property acquired from a connected party.xlsx
@@ -1,82 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolgahmrc/Projects/pension-scheme-return-sipp-frontend/conf/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C29E0-0D61-4941-A299-58B6AEB29667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="39840" yWindow="2360" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Asset from a connected party" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Asset from a connected party" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="vJz8rtwnxE6Nr77y/4OImKOmftwNUBDPW9/DO9KZ+Ws="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t>The questions in this section relate to any asset, other than land or property, acquired from a connected party.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <b val="0"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> 
-Questions that are mandatory are stated in row 2. Notes and hint text is underneath each question to help make sure that there are no errors in the template file upload.
+Questions that are mandatory are stated in row 2
+Notes and hint text is underneath each question to help make sure that there are no errors in the template file upload.
 You must tell us about all assets from a connected party the scheme held at any point during the period of this return.
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">What you need to do
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <b val="0"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
-      <t>Enter your data from row 3 onwards.</t>
+      <t>Enter your data from row 3 onwards. Do not remove any columns.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <b val="0"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <b val="0"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">
 Complete the questions per member marked horizontally across the columns. 
+For all mandatory questions that don’t apply, please leave blank
 For members that have multiple assets, complete one row per asset and repeat the members first name, last name and date of birth for the required number of rows.
 </t>
     </r>
@@ -97,10 +99,7 @@
     <t>If no National Insurance number for member, give reason</t>
   </si>
   <si>
-    <t>How many asset transactions were made during the tax year and not reported in a previous return for this member?</t>
-  </si>
-  <si>
-    <t>What was the date the asset was acquired?</t>
+    <t>What is the date the scheme acquired the land or property?</t>
   </si>
   <si>
     <t>Description of asset</t>
@@ -127,7 +126,7 @@
     <t>Who was the asset acquired from?</t>
   </si>
   <si>
-    <t xml:space="preserve">What was the total cost of the asset acquired? </t>
+    <t>What is the total cost of the land or property at the date the scheme acquired it?</t>
   </si>
   <si>
     <t>Is this transaction supported by an Independent Valuation</t>
@@ -165,20 +164,21 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri, Arial"/>
         <b/>
         <i/>
-        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Question help information. </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri, Arial"/>
+        <b val="0"/>
         <i/>
-        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t>This will give you hints or tips to help you to complete the required cells.</t>
     </r>
@@ -194,7 +194,7 @@
 Hyphens are accepted.</t>
   </si>
   <si>
-    <t>Use the format DD-MM-YYYY.
+    <t>Use the format DD/MM/YYYY.
 Mandatory question.</t>
   </si>
   <si>
@@ -208,13 +208,7 @@
 Maximum of 160 characters.</t>
   </si>
   <si>
-    <t>Enter number of transactions made using characters 0-9.
-If no asset transactions have taken place within the tax year, you do not need to complete any further questions in the any asset other than land or property section.
-For members that have multiple transactions, complete one row per asset and repeat the members first name, last name and date of birth for the required number of rows.
-Mandatory question</t>
-  </si>
-  <si>
-    <t>Use the format DD-MM-YYY
+    <t>Use the format DD/MM/YYYY
 Mandatory question if value entered for number of asset transactions made.</t>
   </si>
   <si>
@@ -228,21 +222,17 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Max of 160 characters
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <i/>
-        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Mandatory question if this was an acquisition of shares.</t>
     </r>
@@ -283,10 +273,6 @@
 Mandatory question if value entered for number of asset transactions made.</t>
   </si>
   <si>
-    <t>Enter YES or NO.
-Mandatory question if value entered for number of asset transactions made.</t>
-  </si>
-  <si>
     <t>Enter the total amount in GBP (pounds and pence)
 Mandatory question if disposal of the asset was made.</t>
   </si>
@@ -313,84 +299,56 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+  </numFmts>
+  <fonts count="8">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri, Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri, Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri, Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri, Arial"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri, Arial"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -398,12 +356,12 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -414,26 +372,16 @@
     </fill>
   </fills>
   <borders count="5">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -443,18 +391,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -469,63 +413,82 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+  <cellXfs count="20">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -715,28 +678,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.5" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="56.5"/>
+    <col customWidth="1" min="2" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +705,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -755,160 +714,5144 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="T2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" s="8" t="s">
+      <c r="V2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="W2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="X2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Z2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>52</v>
-      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="D3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="D4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="D5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="P5" s="18"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="D6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="D7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="D8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="D9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="D10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="D11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="D12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="D13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="P13" s="18"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="D14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="P14" s="18"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="D15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="P15" s="18"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="D16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="P16" s="18"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="D17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="P17" s="18"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="D18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="P18" s="18"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="D19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="P19" s="18"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="D20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="P20" s="18"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="D21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="P21" s="18"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="D22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="P22" s="18"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="D23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="P23" s="18"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="D24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="P24" s="18"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="D25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="P25" s="18"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="D26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="P26" s="18"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="D27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="P27" s="18"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="D28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="P28" s="18"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="D29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="P29" s="18"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="D30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="P30" s="18"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="D31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="P31" s="18"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="D32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="P32" s="18"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="D33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="P33" s="18"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="D34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="P34" s="18"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="D35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="P35" s="18"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="D36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="P36" s="18"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="D37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="P37" s="18"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="D38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="P38" s="18"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="D39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="P39" s="18"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="D40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="P40" s="18"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="D41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="P41" s="18"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="D42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="P42" s="18"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="D43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="P43" s="18"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="D44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="P44" s="18"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="D45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="P45" s="18"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="D46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="P46" s="18"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="D47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="P47" s="18"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="D48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="P48" s="18"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="D49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="P49" s="18"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="D50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="P50" s="18"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="D51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="P51" s="18"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="D52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="P52" s="18"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="D53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="P53" s="18"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="D54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="P54" s="18"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="D55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="P55" s="18"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="D56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="P56" s="18"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="D57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="P57" s="18"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="D58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="P58" s="18"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="D59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="P59" s="18"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="D60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="P60" s="18"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="D61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="P61" s="18"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="D62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="P62" s="18"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="D63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="P63" s="18"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="D64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="P64" s="18"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="D65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="P65" s="18"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="D66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="P66" s="18"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="D67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="P67" s="18"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="D68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="P68" s="18"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="D69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="P69" s="18"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="D70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="P70" s="18"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="D71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="P71" s="18"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="D72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="P72" s="18"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="D73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="P73" s="18"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="D74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="P74" s="18"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="D75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="P75" s="18"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="D76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="P76" s="18"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="D77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="P77" s="18"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="D78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="P78" s="18"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="D79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="P79" s="18"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="D80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="P80" s="18"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="D81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="P81" s="18"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="D82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="P82" s="18"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="D83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="P83" s="18"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="D84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="P84" s="18"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="D85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="P85" s="18"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="D86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="P86" s="18"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="D87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="P87" s="18"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="D88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="P88" s="18"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="D89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="P89" s="18"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="D90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="P90" s="18"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="D91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="P91" s="18"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="D92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="P92" s="18"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="D93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="P93" s="18"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="D94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="P94" s="18"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="D95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="P95" s="18"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="D96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="P96" s="18"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="D97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="P97" s="18"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="D98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="P98" s="18"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="D99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="P99" s="18"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="D100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="P100" s="18"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="D101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="P101" s="18"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="D102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="P102" s="18"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="D103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="P103" s="18"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="D104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="P104" s="18"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="D105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="P105" s="18"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="D106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="P106" s="18"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="D107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="P107" s="18"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="D108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="P108" s="18"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="D109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="P109" s="18"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="D110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="P110" s="18"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="D111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="P111" s="18"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="D112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="P112" s="18"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="D113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="P113" s="18"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="D114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="P114" s="18"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="D115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="P115" s="18"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="D116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="P116" s="18"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="D117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="P117" s="18"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="D118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="P118" s="18"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="D119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="P119" s="18"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="D120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="P120" s="18"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="D121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="P121" s="18"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="D122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="P122" s="18"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="D123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="P123" s="18"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="D124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="P124" s="18"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="D125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="P125" s="18"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="D126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="P126" s="18"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="D127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="P127" s="18"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="D128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="P128" s="18"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="D129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="P129" s="18"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="D130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="P130" s="18"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="D131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="P131" s="18"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="D132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="P132" s="18"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="D133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="P133" s="18"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="D134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="P134" s="18"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="D135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="P135" s="18"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="D136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="P136" s="18"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="D137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="P137" s="18"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="D138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="P138" s="18"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="D139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="P139" s="18"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="D140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="P140" s="18"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="D141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="P141" s="18"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="D142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="P142" s="18"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="D143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="P143" s="18"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="D144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="P144" s="18"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="D145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="P145" s="18"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="D146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="P146" s="18"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="D147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="P147" s="18"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="D148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="P148" s="18"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="D149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="P149" s="18"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="D150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="P150" s="18"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="D151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="P151" s="18"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="D152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="P152" s="18"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="D153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="P153" s="18"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="D154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="P154" s="18"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="D155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="P155" s="18"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="D156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="P156" s="18"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="D157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="P157" s="18"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="D158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="P158" s="18"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="D159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="P159" s="18"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="D160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="P160" s="18"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="D161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="P161" s="18"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="D162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="P162" s="18"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="D163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="P163" s="18"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="D164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="P164" s="18"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="D165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="P165" s="18"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="D166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="P166" s="18"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="D167" s="17"/>
+      <c r="G167" s="17"/>
+      <c r="P167" s="18"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="D168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="P168" s="18"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="D169" s="17"/>
+      <c r="G169" s="17"/>
+      <c r="P169" s="18"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="D170" s="17"/>
+      <c r="G170" s="17"/>
+      <c r="P170" s="18"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="D171" s="17"/>
+      <c r="G171" s="17"/>
+      <c r="P171" s="18"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="D172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="P172" s="18"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="D173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="P173" s="18"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="D174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="P174" s="18"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="D175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="P175" s="18"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="D176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="P176" s="18"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="D177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="P177" s="18"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="D178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="P178" s="18"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="D179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="P179" s="18"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="D180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="P180" s="18"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="D181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="P181" s="18"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="D182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="P182" s="18"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="D183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="P183" s="18"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="D184" s="17"/>
+      <c r="G184" s="17"/>
+      <c r="P184" s="18"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="D185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="P185" s="18"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="D186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="P186" s="18"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="D187" s="17"/>
+      <c r="G187" s="17"/>
+      <c r="P187" s="18"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="D188" s="17"/>
+      <c r="G188" s="17"/>
+      <c r="P188" s="18"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="D189" s="17"/>
+      <c r="G189" s="17"/>
+      <c r="P189" s="18"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="D190" s="17"/>
+      <c r="G190" s="17"/>
+      <c r="P190" s="18"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="D191" s="17"/>
+      <c r="G191" s="17"/>
+      <c r="P191" s="18"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="D192" s="17"/>
+      <c r="G192" s="17"/>
+      <c r="P192" s="18"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="D193" s="17"/>
+      <c r="G193" s="17"/>
+      <c r="P193" s="18"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="D194" s="17"/>
+      <c r="G194" s="17"/>
+      <c r="P194" s="18"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="D195" s="17"/>
+      <c r="G195" s="17"/>
+      <c r="P195" s="18"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="D196" s="17"/>
+      <c r="G196" s="17"/>
+      <c r="P196" s="18"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="D197" s="17"/>
+      <c r="G197" s="17"/>
+      <c r="P197" s="18"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="D198" s="17"/>
+      <c r="G198" s="17"/>
+      <c r="P198" s="18"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="D199" s="17"/>
+      <c r="G199" s="17"/>
+      <c r="P199" s="18"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="D200" s="17"/>
+      <c r="G200" s="17"/>
+      <c r="P200" s="18"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="D201" s="17"/>
+      <c r="G201" s="17"/>
+      <c r="P201" s="18"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="D202" s="17"/>
+      <c r="G202" s="17"/>
+      <c r="P202" s="18"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="D203" s="17"/>
+      <c r="G203" s="17"/>
+      <c r="P203" s="18"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="D204" s="17"/>
+      <c r="G204" s="17"/>
+      <c r="P204" s="18"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="D205" s="17"/>
+      <c r="G205" s="17"/>
+      <c r="P205" s="18"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="D206" s="17"/>
+      <c r="G206" s="17"/>
+      <c r="P206" s="18"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="D207" s="17"/>
+      <c r="G207" s="17"/>
+      <c r="P207" s="18"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="D208" s="17"/>
+      <c r="G208" s="17"/>
+      <c r="P208" s="18"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="D209" s="17"/>
+      <c r="G209" s="17"/>
+      <c r="P209" s="18"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="D210" s="17"/>
+      <c r="G210" s="17"/>
+      <c r="P210" s="18"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="D211" s="17"/>
+      <c r="G211" s="17"/>
+      <c r="P211" s="18"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="D212" s="17"/>
+      <c r="G212" s="17"/>
+      <c r="P212" s="18"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="D213" s="17"/>
+      <c r="G213" s="17"/>
+      <c r="P213" s="18"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="D214" s="17"/>
+      <c r="G214" s="17"/>
+      <c r="P214" s="18"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="D215" s="17"/>
+      <c r="G215" s="17"/>
+      <c r="P215" s="18"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="D216" s="17"/>
+      <c r="G216" s="17"/>
+      <c r="P216" s="18"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="D217" s="17"/>
+      <c r="G217" s="17"/>
+      <c r="P217" s="18"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="D218" s="17"/>
+      <c r="G218" s="17"/>
+      <c r="P218" s="18"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="D219" s="17"/>
+      <c r="G219" s="17"/>
+      <c r="P219" s="18"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="D220" s="17"/>
+      <c r="G220" s="17"/>
+      <c r="P220" s="18"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="D221" s="17"/>
+      <c r="G221" s="17"/>
+      <c r="P221" s="18"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="D222" s="17"/>
+      <c r="G222" s="17"/>
+      <c r="P222" s="18"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="D223" s="17"/>
+      <c r="G223" s="17"/>
+      <c r="P223" s="18"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="D224" s="17"/>
+      <c r="G224" s="17"/>
+      <c r="P224" s="18"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="D225" s="17"/>
+      <c r="G225" s="17"/>
+      <c r="P225" s="18"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="D226" s="17"/>
+      <c r="G226" s="17"/>
+      <c r="P226" s="18"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="D227" s="17"/>
+      <c r="G227" s="17"/>
+      <c r="P227" s="18"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="D228" s="17"/>
+      <c r="G228" s="17"/>
+      <c r="P228" s="18"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="D229" s="17"/>
+      <c r="G229" s="17"/>
+      <c r="P229" s="18"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="D230" s="17"/>
+      <c r="G230" s="17"/>
+      <c r="P230" s="18"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="D231" s="17"/>
+      <c r="G231" s="17"/>
+      <c r="P231" s="18"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="D232" s="17"/>
+      <c r="G232" s="17"/>
+      <c r="P232" s="18"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="D233" s="17"/>
+      <c r="G233" s="17"/>
+      <c r="P233" s="18"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="D234" s="17"/>
+      <c r="G234" s="17"/>
+      <c r="P234" s="18"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="D235" s="17"/>
+      <c r="G235" s="17"/>
+      <c r="P235" s="18"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="D236" s="17"/>
+      <c r="G236" s="17"/>
+      <c r="P236" s="18"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="D237" s="17"/>
+      <c r="G237" s="17"/>
+      <c r="P237" s="18"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="D238" s="17"/>
+      <c r="G238" s="17"/>
+      <c r="P238" s="18"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="D239" s="17"/>
+      <c r="G239" s="17"/>
+      <c r="P239" s="18"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="D240" s="17"/>
+      <c r="G240" s="17"/>
+      <c r="P240" s="18"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="D241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="P241" s="18"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="D242" s="17"/>
+      <c r="G242" s="17"/>
+      <c r="P242" s="18"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="D243" s="17"/>
+      <c r="G243" s="17"/>
+      <c r="P243" s="18"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="D244" s="17"/>
+      <c r="G244" s="17"/>
+      <c r="P244" s="18"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="D245" s="17"/>
+      <c r="G245" s="17"/>
+      <c r="P245" s="18"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="D246" s="17"/>
+      <c r="G246" s="17"/>
+      <c r="P246" s="18"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="D247" s="17"/>
+      <c r="G247" s="17"/>
+      <c r="P247" s="18"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="D248" s="17"/>
+      <c r="G248" s="17"/>
+      <c r="P248" s="18"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="D249" s="17"/>
+      <c r="G249" s="17"/>
+      <c r="P249" s="18"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="D250" s="17"/>
+      <c r="G250" s="17"/>
+      <c r="P250" s="18"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="D251" s="17"/>
+      <c r="G251" s="17"/>
+      <c r="P251" s="18"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="D252" s="17"/>
+      <c r="G252" s="17"/>
+      <c r="P252" s="18"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="D253" s="17"/>
+      <c r="G253" s="17"/>
+      <c r="P253" s="18"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="D254" s="17"/>
+      <c r="G254" s="17"/>
+      <c r="P254" s="18"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="D255" s="17"/>
+      <c r="G255" s="17"/>
+      <c r="P255" s="18"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="D256" s="17"/>
+      <c r="G256" s="17"/>
+      <c r="P256" s="18"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="D257" s="17"/>
+      <c r="G257" s="17"/>
+      <c r="P257" s="18"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="D258" s="17"/>
+      <c r="G258" s="17"/>
+      <c r="P258" s="18"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="D259" s="17"/>
+      <c r="G259" s="17"/>
+      <c r="P259" s="18"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="D260" s="17"/>
+      <c r="G260" s="17"/>
+      <c r="P260" s="18"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="D261" s="17"/>
+      <c r="G261" s="17"/>
+      <c r="P261" s="18"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="D262" s="17"/>
+      <c r="G262" s="17"/>
+      <c r="P262" s="18"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="D263" s="17"/>
+      <c r="G263" s="17"/>
+      <c r="P263" s="18"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="D264" s="17"/>
+      <c r="G264" s="17"/>
+      <c r="P264" s="18"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="D265" s="17"/>
+      <c r="G265" s="17"/>
+      <c r="P265" s="18"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="D266" s="17"/>
+      <c r="G266" s="17"/>
+      <c r="P266" s="18"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="D267" s="17"/>
+      <c r="G267" s="17"/>
+      <c r="P267" s="18"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="D268" s="17"/>
+      <c r="G268" s="17"/>
+      <c r="P268" s="18"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="D269" s="17"/>
+      <c r="G269" s="17"/>
+      <c r="P269" s="18"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="D270" s="17"/>
+      <c r="G270" s="17"/>
+      <c r="P270" s="18"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="D271" s="17"/>
+      <c r="G271" s="17"/>
+      <c r="P271" s="18"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="D272" s="17"/>
+      <c r="G272" s="17"/>
+      <c r="P272" s="18"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="D273" s="17"/>
+      <c r="G273" s="17"/>
+      <c r="P273" s="18"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="D274" s="17"/>
+      <c r="G274" s="17"/>
+      <c r="P274" s="18"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="D275" s="17"/>
+      <c r="G275" s="17"/>
+      <c r="P275" s="18"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="D276" s="17"/>
+      <c r="G276" s="17"/>
+      <c r="P276" s="18"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="D277" s="17"/>
+      <c r="G277" s="17"/>
+      <c r="P277" s="18"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="D278" s="17"/>
+      <c r="G278" s="17"/>
+      <c r="P278" s="18"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="D279" s="17"/>
+      <c r="G279" s="17"/>
+      <c r="P279" s="18"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="D280" s="17"/>
+      <c r="G280" s="17"/>
+      <c r="P280" s="18"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="D281" s="17"/>
+      <c r="G281" s="17"/>
+      <c r="P281" s="18"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="D282" s="17"/>
+      <c r="G282" s="17"/>
+      <c r="P282" s="18"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="D283" s="17"/>
+      <c r="G283" s="17"/>
+      <c r="P283" s="18"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="D284" s="17"/>
+      <c r="G284" s="17"/>
+      <c r="P284" s="18"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="D285" s="17"/>
+      <c r="G285" s="17"/>
+      <c r="P285" s="18"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="D286" s="17"/>
+      <c r="G286" s="17"/>
+      <c r="P286" s="18"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="D287" s="17"/>
+      <c r="G287" s="17"/>
+      <c r="P287" s="18"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="D288" s="17"/>
+      <c r="G288" s="17"/>
+      <c r="P288" s="18"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="D289" s="17"/>
+      <c r="G289" s="17"/>
+      <c r="P289" s="18"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="D290" s="17"/>
+      <c r="G290" s="17"/>
+      <c r="P290" s="18"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="D291" s="17"/>
+      <c r="G291" s="17"/>
+      <c r="P291" s="18"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="D292" s="17"/>
+      <c r="G292" s="17"/>
+      <c r="P292" s="18"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="D293" s="17"/>
+      <c r="G293" s="17"/>
+      <c r="P293" s="18"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="D294" s="17"/>
+      <c r="G294" s="17"/>
+      <c r="P294" s="18"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="D295" s="17"/>
+      <c r="G295" s="17"/>
+      <c r="P295" s="18"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="D296" s="17"/>
+      <c r="G296" s="17"/>
+      <c r="P296" s="18"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="D297" s="17"/>
+      <c r="G297" s="17"/>
+      <c r="P297" s="18"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="D298" s="17"/>
+      <c r="G298" s="17"/>
+      <c r="P298" s="18"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="D299" s="17"/>
+      <c r="G299" s="17"/>
+      <c r="P299" s="18"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="D300" s="17"/>
+      <c r="G300" s="17"/>
+      <c r="P300" s="18"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="D301" s="17"/>
+      <c r="G301" s="17"/>
+      <c r="P301" s="18"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="D302" s="17"/>
+      <c r="G302" s="17"/>
+      <c r="P302" s="18"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="D303" s="17"/>
+      <c r="G303" s="17"/>
+      <c r="P303" s="18"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="D304" s="17"/>
+      <c r="G304" s="17"/>
+      <c r="P304" s="18"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="D305" s="17"/>
+      <c r="G305" s="17"/>
+      <c r="P305" s="18"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="D306" s="17"/>
+      <c r="G306" s="17"/>
+      <c r="P306" s="18"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="D307" s="17"/>
+      <c r="G307" s="17"/>
+      <c r="P307" s="18"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="D308" s="17"/>
+      <c r="G308" s="17"/>
+      <c r="P308" s="18"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="D309" s="17"/>
+      <c r="G309" s="17"/>
+      <c r="P309" s="18"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="D310" s="17"/>
+      <c r="G310" s="17"/>
+      <c r="P310" s="18"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="D311" s="17"/>
+      <c r="G311" s="17"/>
+      <c r="P311" s="18"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="D312" s="17"/>
+      <c r="G312" s="17"/>
+      <c r="P312" s="18"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="D313" s="17"/>
+      <c r="G313" s="17"/>
+      <c r="P313" s="18"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="D314" s="17"/>
+      <c r="G314" s="17"/>
+      <c r="P314" s="18"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="D315" s="17"/>
+      <c r="G315" s="17"/>
+      <c r="P315" s="18"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="D316" s="17"/>
+      <c r="G316" s="17"/>
+      <c r="P316" s="18"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="D317" s="17"/>
+      <c r="G317" s="17"/>
+      <c r="P317" s="18"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="D318" s="17"/>
+      <c r="G318" s="17"/>
+      <c r="P318" s="18"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="D319" s="17"/>
+      <c r="G319" s="17"/>
+      <c r="P319" s="18"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="D320" s="17"/>
+      <c r="G320" s="17"/>
+      <c r="P320" s="18"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="D321" s="17"/>
+      <c r="G321" s="17"/>
+      <c r="P321" s="18"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="D322" s="17"/>
+      <c r="G322" s="17"/>
+      <c r="P322" s="18"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="D323" s="17"/>
+      <c r="G323" s="17"/>
+      <c r="P323" s="18"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="D324" s="17"/>
+      <c r="G324" s="17"/>
+      <c r="P324" s="18"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="D325" s="17"/>
+      <c r="G325" s="17"/>
+      <c r="P325" s="18"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="D326" s="17"/>
+      <c r="G326" s="17"/>
+      <c r="P326" s="18"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="D327" s="17"/>
+      <c r="G327" s="17"/>
+      <c r="P327" s="18"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="D328" s="17"/>
+      <c r="G328" s="17"/>
+      <c r="P328" s="18"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="D329" s="17"/>
+      <c r="G329" s="17"/>
+      <c r="P329" s="18"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="D330" s="17"/>
+      <c r="G330" s="17"/>
+      <c r="P330" s="18"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="D331" s="17"/>
+      <c r="G331" s="17"/>
+      <c r="P331" s="18"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="D332" s="17"/>
+      <c r="G332" s="17"/>
+      <c r="P332" s="18"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="D333" s="17"/>
+      <c r="G333" s="17"/>
+      <c r="P333" s="18"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="D334" s="17"/>
+      <c r="G334" s="17"/>
+      <c r="P334" s="18"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="D335" s="17"/>
+      <c r="G335" s="17"/>
+      <c r="P335" s="18"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="D336" s="17"/>
+      <c r="G336" s="17"/>
+      <c r="P336" s="18"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="D337" s="17"/>
+      <c r="G337" s="17"/>
+      <c r="P337" s="18"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="D338" s="17"/>
+      <c r="G338" s="17"/>
+      <c r="P338" s="18"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="D339" s="17"/>
+      <c r="G339" s="17"/>
+      <c r="P339" s="18"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="D340" s="17"/>
+      <c r="G340" s="17"/>
+      <c r="P340" s="18"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="D341" s="17"/>
+      <c r="G341" s="17"/>
+      <c r="P341" s="18"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="D342" s="17"/>
+      <c r="G342" s="17"/>
+      <c r="P342" s="18"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="D343" s="17"/>
+      <c r="G343" s="17"/>
+      <c r="P343" s="18"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="D344" s="17"/>
+      <c r="G344" s="17"/>
+      <c r="P344" s="18"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="D345" s="17"/>
+      <c r="G345" s="17"/>
+      <c r="P345" s="18"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="D346" s="17"/>
+      <c r="G346" s="17"/>
+      <c r="P346" s="18"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="D347" s="17"/>
+      <c r="G347" s="17"/>
+      <c r="P347" s="18"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="D348" s="17"/>
+      <c r="G348" s="17"/>
+      <c r="P348" s="18"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="D349" s="17"/>
+      <c r="G349" s="17"/>
+      <c r="P349" s="18"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="D350" s="17"/>
+      <c r="G350" s="17"/>
+      <c r="P350" s="18"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="D351" s="17"/>
+      <c r="G351" s="17"/>
+      <c r="P351" s="18"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="D352" s="17"/>
+      <c r="G352" s="17"/>
+      <c r="P352" s="18"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="D353" s="17"/>
+      <c r="G353" s="17"/>
+      <c r="P353" s="18"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="D354" s="17"/>
+      <c r="G354" s="17"/>
+      <c r="P354" s="18"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="D355" s="17"/>
+      <c r="G355" s="17"/>
+      <c r="P355" s="18"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="D356" s="17"/>
+      <c r="G356" s="17"/>
+      <c r="P356" s="18"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="D357" s="17"/>
+      <c r="G357" s="17"/>
+      <c r="P357" s="18"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="D358" s="17"/>
+      <c r="G358" s="17"/>
+      <c r="P358" s="18"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="D359" s="17"/>
+      <c r="G359" s="17"/>
+      <c r="P359" s="18"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="D360" s="17"/>
+      <c r="G360" s="17"/>
+      <c r="P360" s="18"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="D361" s="17"/>
+      <c r="G361" s="17"/>
+      <c r="P361" s="18"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="D362" s="17"/>
+      <c r="G362" s="17"/>
+      <c r="P362" s="18"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="D363" s="17"/>
+      <c r="G363" s="17"/>
+      <c r="P363" s="18"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="D364" s="17"/>
+      <c r="G364" s="17"/>
+      <c r="P364" s="18"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="D365" s="17"/>
+      <c r="G365" s="17"/>
+      <c r="P365" s="18"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="D366" s="17"/>
+      <c r="G366" s="17"/>
+      <c r="P366" s="18"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="D367" s="17"/>
+      <c r="G367" s="17"/>
+      <c r="P367" s="18"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="D368" s="17"/>
+      <c r="G368" s="17"/>
+      <c r="P368" s="18"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="D369" s="17"/>
+      <c r="G369" s="17"/>
+      <c r="P369" s="18"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="D370" s="17"/>
+      <c r="G370" s="17"/>
+      <c r="P370" s="18"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="D371" s="17"/>
+      <c r="G371" s="17"/>
+      <c r="P371" s="18"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="D372" s="17"/>
+      <c r="G372" s="17"/>
+      <c r="P372" s="18"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="D373" s="17"/>
+      <c r="G373" s="17"/>
+      <c r="P373" s="18"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="D374" s="17"/>
+      <c r="G374" s="17"/>
+      <c r="P374" s="18"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="D375" s="17"/>
+      <c r="G375" s="17"/>
+      <c r="P375" s="18"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="D376" s="17"/>
+      <c r="G376" s="17"/>
+      <c r="P376" s="18"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="D377" s="17"/>
+      <c r="G377" s="17"/>
+      <c r="P377" s="18"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="D378" s="17"/>
+      <c r="G378" s="17"/>
+      <c r="P378" s="18"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="D379" s="17"/>
+      <c r="G379" s="17"/>
+      <c r="P379" s="18"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="D380" s="17"/>
+      <c r="G380" s="17"/>
+      <c r="P380" s="18"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="D381" s="17"/>
+      <c r="G381" s="17"/>
+      <c r="P381" s="18"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="D382" s="17"/>
+      <c r="G382" s="17"/>
+      <c r="P382" s="18"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="D383" s="17"/>
+      <c r="G383" s="17"/>
+      <c r="P383" s="18"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="D384" s="17"/>
+      <c r="G384" s="17"/>
+      <c r="P384" s="18"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="D385" s="17"/>
+      <c r="G385" s="17"/>
+      <c r="P385" s="18"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="D386" s="17"/>
+      <c r="G386" s="17"/>
+      <c r="P386" s="18"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="D387" s="17"/>
+      <c r="G387" s="17"/>
+      <c r="P387" s="18"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="D388" s="17"/>
+      <c r="G388" s="17"/>
+      <c r="P388" s="18"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="D389" s="17"/>
+      <c r="G389" s="17"/>
+      <c r="P389" s="18"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="D390" s="17"/>
+      <c r="G390" s="17"/>
+      <c r="P390" s="18"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="D391" s="17"/>
+      <c r="G391" s="17"/>
+      <c r="P391" s="18"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="D392" s="17"/>
+      <c r="G392" s="17"/>
+      <c r="P392" s="18"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="D393" s="17"/>
+      <c r="G393" s="17"/>
+      <c r="P393" s="18"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="D394" s="17"/>
+      <c r="G394" s="17"/>
+      <c r="P394" s="18"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="D395" s="17"/>
+      <c r="G395" s="17"/>
+      <c r="P395" s="18"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="D396" s="17"/>
+      <c r="G396" s="17"/>
+      <c r="P396" s="18"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="D397" s="17"/>
+      <c r="G397" s="17"/>
+      <c r="P397" s="18"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="D398" s="17"/>
+      <c r="G398" s="17"/>
+      <c r="P398" s="18"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="D399" s="17"/>
+      <c r="G399" s="17"/>
+      <c r="P399" s="18"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="D400" s="17"/>
+      <c r="G400" s="17"/>
+      <c r="P400" s="18"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="D401" s="17"/>
+      <c r="G401" s="17"/>
+      <c r="P401" s="18"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="D402" s="17"/>
+      <c r="G402" s="17"/>
+      <c r="P402" s="18"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="D403" s="17"/>
+      <c r="G403" s="17"/>
+      <c r="P403" s="18"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="D404" s="17"/>
+      <c r="G404" s="17"/>
+      <c r="P404" s="18"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="D405" s="17"/>
+      <c r="G405" s="17"/>
+      <c r="P405" s="18"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="D406" s="17"/>
+      <c r="G406" s="17"/>
+      <c r="P406" s="18"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="D407" s="17"/>
+      <c r="G407" s="17"/>
+      <c r="P407" s="18"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="D408" s="17"/>
+      <c r="G408" s="17"/>
+      <c r="P408" s="18"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="D409" s="17"/>
+      <c r="G409" s="17"/>
+      <c r="P409" s="18"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="D410" s="17"/>
+      <c r="G410" s="17"/>
+      <c r="P410" s="18"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="D411" s="17"/>
+      <c r="G411" s="17"/>
+      <c r="P411" s="18"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="D412" s="17"/>
+      <c r="G412" s="17"/>
+      <c r="P412" s="18"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="D413" s="17"/>
+      <c r="G413" s="17"/>
+      <c r="P413" s="18"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="D414" s="17"/>
+      <c r="G414" s="17"/>
+      <c r="P414" s="18"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="D415" s="17"/>
+      <c r="G415" s="17"/>
+      <c r="P415" s="18"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="D416" s="17"/>
+      <c r="G416" s="17"/>
+      <c r="P416" s="18"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="D417" s="17"/>
+      <c r="G417" s="17"/>
+      <c r="P417" s="18"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="D418" s="17"/>
+      <c r="G418" s="17"/>
+      <c r="P418" s="18"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="D419" s="17"/>
+      <c r="G419" s="17"/>
+      <c r="P419" s="18"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="D420" s="17"/>
+      <c r="G420" s="17"/>
+      <c r="P420" s="18"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="D421" s="17"/>
+      <c r="G421" s="17"/>
+      <c r="P421" s="18"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="D422" s="17"/>
+      <c r="G422" s="17"/>
+      <c r="P422" s="18"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="D423" s="17"/>
+      <c r="G423" s="17"/>
+      <c r="P423" s="18"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="D424" s="17"/>
+      <c r="G424" s="17"/>
+      <c r="P424" s="18"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="D425" s="17"/>
+      <c r="G425" s="17"/>
+      <c r="P425" s="18"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="D426" s="17"/>
+      <c r="G426" s="17"/>
+      <c r="P426" s="18"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="D427" s="17"/>
+      <c r="G427" s="17"/>
+      <c r="P427" s="18"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="D428" s="17"/>
+      <c r="G428" s="17"/>
+      <c r="P428" s="18"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="D429" s="17"/>
+      <c r="G429" s="17"/>
+      <c r="P429" s="18"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="D430" s="17"/>
+      <c r="G430" s="17"/>
+      <c r="P430" s="18"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="D431" s="17"/>
+      <c r="G431" s="17"/>
+      <c r="P431" s="18"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="D432" s="17"/>
+      <c r="G432" s="17"/>
+      <c r="P432" s="18"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="D433" s="17"/>
+      <c r="G433" s="17"/>
+      <c r="P433" s="18"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="D434" s="17"/>
+      <c r="G434" s="17"/>
+      <c r="P434" s="18"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="D435" s="17"/>
+      <c r="G435" s="17"/>
+      <c r="P435" s="18"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="D436" s="17"/>
+      <c r="G436" s="17"/>
+      <c r="P436" s="18"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="D437" s="17"/>
+      <c r="G437" s="17"/>
+      <c r="P437" s="18"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="D438" s="17"/>
+      <c r="G438" s="17"/>
+      <c r="P438" s="18"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="D439" s="17"/>
+      <c r="G439" s="17"/>
+      <c r="P439" s="18"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="D440" s="17"/>
+      <c r="G440" s="17"/>
+      <c r="P440" s="18"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="D441" s="17"/>
+      <c r="G441" s="17"/>
+      <c r="P441" s="18"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="D442" s="17"/>
+      <c r="G442" s="17"/>
+      <c r="P442" s="18"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="D443" s="17"/>
+      <c r="G443" s="17"/>
+      <c r="P443" s="18"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="D444" s="17"/>
+      <c r="G444" s="17"/>
+      <c r="P444" s="18"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="D445" s="17"/>
+      <c r="G445" s="17"/>
+      <c r="P445" s="18"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="D446" s="17"/>
+      <c r="G446" s="17"/>
+      <c r="P446" s="18"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="D447" s="17"/>
+      <c r="G447" s="17"/>
+      <c r="P447" s="18"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="D448" s="17"/>
+      <c r="G448" s="17"/>
+      <c r="P448" s="18"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="D449" s="17"/>
+      <c r="G449" s="17"/>
+      <c r="P449" s="18"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="D450" s="17"/>
+      <c r="G450" s="17"/>
+      <c r="P450" s="18"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="D451" s="17"/>
+      <c r="G451" s="17"/>
+      <c r="P451" s="18"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="D452" s="17"/>
+      <c r="G452" s="17"/>
+      <c r="P452" s="18"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="D453" s="17"/>
+      <c r="G453" s="17"/>
+      <c r="P453" s="18"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="D454" s="17"/>
+      <c r="G454" s="17"/>
+      <c r="P454" s="18"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="D455" s="17"/>
+      <c r="G455" s="17"/>
+      <c r="P455" s="18"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="D456" s="17"/>
+      <c r="G456" s="17"/>
+      <c r="P456" s="18"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="D457" s="17"/>
+      <c r="G457" s="17"/>
+      <c r="P457" s="18"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="D458" s="17"/>
+      <c r="G458" s="17"/>
+      <c r="P458" s="18"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="D459" s="17"/>
+      <c r="G459" s="17"/>
+      <c r="P459" s="18"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="D460" s="17"/>
+      <c r="G460" s="17"/>
+      <c r="P460" s="18"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="D461" s="17"/>
+      <c r="G461" s="17"/>
+      <c r="P461" s="18"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="D462" s="17"/>
+      <c r="G462" s="17"/>
+      <c r="P462" s="18"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="D463" s="17"/>
+      <c r="G463" s="17"/>
+      <c r="P463" s="18"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="D464" s="17"/>
+      <c r="G464" s="17"/>
+      <c r="P464" s="18"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="D465" s="17"/>
+      <c r="G465" s="17"/>
+      <c r="P465" s="18"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="D466" s="17"/>
+      <c r="G466" s="17"/>
+      <c r="P466" s="18"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="D467" s="17"/>
+      <c r="G467" s="17"/>
+      <c r="P467" s="18"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="D468" s="17"/>
+      <c r="G468" s="17"/>
+      <c r="P468" s="18"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="D469" s="17"/>
+      <c r="G469" s="17"/>
+      <c r="P469" s="18"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="D470" s="17"/>
+      <c r="G470" s="17"/>
+      <c r="P470" s="18"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="D471" s="17"/>
+      <c r="G471" s="17"/>
+      <c r="P471" s="18"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="D472" s="17"/>
+      <c r="G472" s="17"/>
+      <c r="P472" s="18"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="D473" s="17"/>
+      <c r="G473" s="17"/>
+      <c r="P473" s="18"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="D474" s="17"/>
+      <c r="G474" s="17"/>
+      <c r="P474" s="18"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="D475" s="17"/>
+      <c r="G475" s="17"/>
+      <c r="P475" s="18"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="D476" s="17"/>
+      <c r="G476" s="17"/>
+      <c r="P476" s="18"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="D477" s="17"/>
+      <c r="G477" s="17"/>
+      <c r="P477" s="18"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="D478" s="17"/>
+      <c r="G478" s="17"/>
+      <c r="P478" s="18"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="D479" s="17"/>
+      <c r="G479" s="17"/>
+      <c r="P479" s="18"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="D480" s="17"/>
+      <c r="G480" s="17"/>
+      <c r="P480" s="18"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="D481" s="17"/>
+      <c r="G481" s="17"/>
+      <c r="P481" s="18"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="D482" s="17"/>
+      <c r="G482" s="17"/>
+      <c r="P482" s="18"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="D483" s="17"/>
+      <c r="G483" s="17"/>
+      <c r="P483" s="18"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="D484" s="17"/>
+      <c r="G484" s="17"/>
+      <c r="P484" s="18"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="D485" s="17"/>
+      <c r="G485" s="17"/>
+      <c r="P485" s="18"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="D486" s="17"/>
+      <c r="G486" s="17"/>
+      <c r="P486" s="18"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="D487" s="17"/>
+      <c r="G487" s="17"/>
+      <c r="P487" s="18"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="D488" s="17"/>
+      <c r="G488" s="17"/>
+      <c r="P488" s="18"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="D489" s="17"/>
+      <c r="G489" s="17"/>
+      <c r="P489" s="18"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="D490" s="17"/>
+      <c r="G490" s="17"/>
+      <c r="P490" s="18"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="D491" s="17"/>
+      <c r="G491" s="17"/>
+      <c r="P491" s="18"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="D492" s="17"/>
+      <c r="G492" s="17"/>
+      <c r="P492" s="18"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="D493" s="17"/>
+      <c r="G493" s="17"/>
+      <c r="P493" s="18"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="D494" s="17"/>
+      <c r="G494" s="17"/>
+      <c r="P494" s="18"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="D495" s="17"/>
+      <c r="G495" s="17"/>
+      <c r="P495" s="18"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="D496" s="17"/>
+      <c r="G496" s="17"/>
+      <c r="P496" s="18"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="D497" s="17"/>
+      <c r="G497" s="17"/>
+      <c r="P497" s="18"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="D498" s="17"/>
+      <c r="G498" s="17"/>
+      <c r="P498" s="18"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="D499" s="17"/>
+      <c r="G499" s="17"/>
+      <c r="P499" s="18"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="D500" s="17"/>
+      <c r="G500" s="17"/>
+      <c r="P500" s="18"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="D501" s="17"/>
+      <c r="G501" s="17"/>
+      <c r="P501" s="18"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="D502" s="17"/>
+      <c r="G502" s="17"/>
+      <c r="P502" s="18"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="D503" s="17"/>
+      <c r="G503" s="17"/>
+      <c r="P503" s="18"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="D504" s="17"/>
+      <c r="G504" s="17"/>
+      <c r="P504" s="18"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="D505" s="17"/>
+      <c r="G505" s="17"/>
+      <c r="P505" s="18"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="D506" s="17"/>
+      <c r="G506" s="17"/>
+      <c r="P506" s="18"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="D507" s="17"/>
+      <c r="G507" s="17"/>
+      <c r="P507" s="18"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="D508" s="17"/>
+      <c r="G508" s="17"/>
+      <c r="P508" s="18"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="D509" s="17"/>
+      <c r="G509" s="17"/>
+      <c r="P509" s="18"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="D510" s="17"/>
+      <c r="G510" s="17"/>
+      <c r="P510" s="18"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="D511" s="17"/>
+      <c r="G511" s="17"/>
+      <c r="P511" s="18"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="D512" s="17"/>
+      <c r="G512" s="17"/>
+      <c r="P512" s="18"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="D513" s="17"/>
+      <c r="G513" s="17"/>
+      <c r="P513" s="18"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="D514" s="17"/>
+      <c r="G514" s="17"/>
+      <c r="P514" s="18"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="D515" s="17"/>
+      <c r="G515" s="17"/>
+      <c r="P515" s="18"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="D516" s="17"/>
+      <c r="G516" s="17"/>
+      <c r="P516" s="18"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="D517" s="17"/>
+      <c r="G517" s="17"/>
+      <c r="P517" s="18"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="D518" s="17"/>
+      <c r="G518" s="17"/>
+      <c r="P518" s="18"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="D519" s="17"/>
+      <c r="G519" s="17"/>
+      <c r="P519" s="18"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="D520" s="17"/>
+      <c r="G520" s="17"/>
+      <c r="P520" s="18"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="D521" s="17"/>
+      <c r="G521" s="17"/>
+      <c r="P521" s="18"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="D522" s="17"/>
+      <c r="G522" s="17"/>
+      <c r="P522" s="18"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="D523" s="17"/>
+      <c r="G523" s="17"/>
+      <c r="P523" s="18"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="D524" s="17"/>
+      <c r="G524" s="17"/>
+      <c r="P524" s="18"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="D525" s="17"/>
+      <c r="G525" s="17"/>
+      <c r="P525" s="18"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="D526" s="17"/>
+      <c r="G526" s="17"/>
+      <c r="P526" s="18"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="D527" s="17"/>
+      <c r="G527" s="17"/>
+      <c r="P527" s="18"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="D528" s="17"/>
+      <c r="G528" s="17"/>
+      <c r="P528" s="18"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="D529" s="17"/>
+      <c r="G529" s="17"/>
+      <c r="P529" s="18"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="D530" s="17"/>
+      <c r="G530" s="17"/>
+      <c r="P530" s="18"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="D531" s="17"/>
+      <c r="G531" s="17"/>
+      <c r="P531" s="18"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="D532" s="17"/>
+      <c r="G532" s="17"/>
+      <c r="P532" s="18"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="D533" s="17"/>
+      <c r="G533" s="17"/>
+      <c r="P533" s="18"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="D534" s="17"/>
+      <c r="G534" s="17"/>
+      <c r="P534" s="18"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="D535" s="17"/>
+      <c r="G535" s="17"/>
+      <c r="P535" s="18"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="D536" s="17"/>
+      <c r="G536" s="17"/>
+      <c r="P536" s="18"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="D537" s="17"/>
+      <c r="G537" s="17"/>
+      <c r="P537" s="18"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="D538" s="17"/>
+      <c r="G538" s="17"/>
+      <c r="P538" s="18"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="D539" s="17"/>
+      <c r="G539" s="17"/>
+      <c r="P539" s="18"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="D540" s="17"/>
+      <c r="G540" s="17"/>
+      <c r="P540" s="18"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="D541" s="17"/>
+      <c r="G541" s="17"/>
+      <c r="P541" s="18"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="D542" s="17"/>
+      <c r="G542" s="17"/>
+      <c r="P542" s="18"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="D543" s="17"/>
+      <c r="G543" s="17"/>
+      <c r="P543" s="18"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="D544" s="17"/>
+      <c r="G544" s="17"/>
+      <c r="P544" s="18"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="D545" s="17"/>
+      <c r="G545" s="17"/>
+      <c r="P545" s="18"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="D546" s="17"/>
+      <c r="G546" s="17"/>
+      <c r="P546" s="18"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="D547" s="17"/>
+      <c r="G547" s="17"/>
+      <c r="P547" s="18"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="D548" s="17"/>
+      <c r="G548" s="17"/>
+      <c r="P548" s="18"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="D549" s="17"/>
+      <c r="G549" s="17"/>
+      <c r="P549" s="18"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="D550" s="17"/>
+      <c r="G550" s="17"/>
+      <c r="P550" s="18"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="D551" s="17"/>
+      <c r="G551" s="17"/>
+      <c r="P551" s="18"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="D552" s="17"/>
+      <c r="G552" s="17"/>
+      <c r="P552" s="18"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="D553" s="17"/>
+      <c r="G553" s="17"/>
+      <c r="P553" s="18"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="D554" s="17"/>
+      <c r="G554" s="17"/>
+      <c r="P554" s="18"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="D555" s="17"/>
+      <c r="G555" s="17"/>
+      <c r="P555" s="18"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="D556" s="17"/>
+      <c r="G556" s="17"/>
+      <c r="P556" s="18"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="D557" s="17"/>
+      <c r="G557" s="17"/>
+      <c r="P557" s="18"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="D558" s="17"/>
+      <c r="G558" s="17"/>
+      <c r="P558" s="18"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="D559" s="17"/>
+      <c r="G559" s="17"/>
+      <c r="P559" s="18"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="D560" s="17"/>
+      <c r="G560" s="17"/>
+      <c r="P560" s="18"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="D561" s="17"/>
+      <c r="G561" s="17"/>
+      <c r="P561" s="18"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="D562" s="17"/>
+      <c r="G562" s="17"/>
+      <c r="P562" s="18"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="D563" s="17"/>
+      <c r="G563" s="17"/>
+      <c r="P563" s="18"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="D564" s="17"/>
+      <c r="G564" s="17"/>
+      <c r="P564" s="18"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="D565" s="17"/>
+      <c r="G565" s="17"/>
+      <c r="P565" s="18"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="D566" s="17"/>
+      <c r="G566" s="17"/>
+      <c r="P566" s="18"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="D567" s="17"/>
+      <c r="G567" s="17"/>
+      <c r="P567" s="18"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="D568" s="17"/>
+      <c r="G568" s="17"/>
+      <c r="P568" s="18"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="D569" s="17"/>
+      <c r="G569" s="17"/>
+      <c r="P569" s="18"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="D570" s="17"/>
+      <c r="G570" s="17"/>
+      <c r="P570" s="18"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="D571" s="17"/>
+      <c r="G571" s="17"/>
+      <c r="P571" s="18"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="D572" s="17"/>
+      <c r="G572" s="17"/>
+      <c r="P572" s="18"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="D573" s="17"/>
+      <c r="G573" s="17"/>
+      <c r="P573" s="18"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="D574" s="17"/>
+      <c r="G574" s="17"/>
+      <c r="P574" s="18"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="D575" s="17"/>
+      <c r="G575" s="17"/>
+      <c r="P575" s="18"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="D576" s="17"/>
+      <c r="G576" s="17"/>
+      <c r="P576" s="18"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="D577" s="17"/>
+      <c r="G577" s="17"/>
+      <c r="P577" s="18"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="D578" s="17"/>
+      <c r="G578" s="17"/>
+      <c r="P578" s="18"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="D579" s="17"/>
+      <c r="G579" s="17"/>
+      <c r="P579" s="18"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="D580" s="17"/>
+      <c r="G580" s="17"/>
+      <c r="P580" s="18"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="D581" s="17"/>
+      <c r="G581" s="17"/>
+      <c r="P581" s="18"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="D582" s="17"/>
+      <c r="G582" s="17"/>
+      <c r="P582" s="18"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="D583" s="17"/>
+      <c r="G583" s="17"/>
+      <c r="P583" s="18"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="D584" s="17"/>
+      <c r="G584" s="17"/>
+      <c r="P584" s="18"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="D585" s="17"/>
+      <c r="G585" s="17"/>
+      <c r="P585" s="18"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="D586" s="17"/>
+      <c r="G586" s="17"/>
+      <c r="P586" s="18"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="D587" s="17"/>
+      <c r="G587" s="17"/>
+      <c r="P587" s="18"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="D588" s="17"/>
+      <c r="G588" s="17"/>
+      <c r="P588" s="18"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="D589" s="17"/>
+      <c r="G589" s="17"/>
+      <c r="P589" s="18"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="D590" s="17"/>
+      <c r="G590" s="17"/>
+      <c r="P590" s="18"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="D591" s="17"/>
+      <c r="G591" s="17"/>
+      <c r="P591" s="18"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="D592" s="17"/>
+      <c r="G592" s="17"/>
+      <c r="P592" s="18"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="D593" s="17"/>
+      <c r="G593" s="17"/>
+      <c r="P593" s="18"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="D594" s="17"/>
+      <c r="G594" s="17"/>
+      <c r="P594" s="18"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="D595" s="17"/>
+      <c r="G595" s="17"/>
+      <c r="P595" s="18"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="D596" s="17"/>
+      <c r="G596" s="17"/>
+      <c r="P596" s="18"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="D597" s="17"/>
+      <c r="G597" s="17"/>
+      <c r="P597" s="18"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="D598" s="17"/>
+      <c r="G598" s="17"/>
+      <c r="P598" s="18"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="D599" s="17"/>
+      <c r="G599" s="17"/>
+      <c r="P599" s="18"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="D600" s="17"/>
+      <c r="G600" s="17"/>
+      <c r="P600" s="18"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="D601" s="17"/>
+      <c r="G601" s="17"/>
+      <c r="P601" s="18"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="D602" s="17"/>
+      <c r="G602" s="17"/>
+      <c r="P602" s="18"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="D603" s="17"/>
+      <c r="G603" s="17"/>
+      <c r="P603" s="18"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="D604" s="17"/>
+      <c r="G604" s="17"/>
+      <c r="P604" s="18"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="D605" s="17"/>
+      <c r="G605" s="17"/>
+      <c r="P605" s="18"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="D606" s="17"/>
+      <c r="G606" s="17"/>
+      <c r="P606" s="18"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="D607" s="17"/>
+      <c r="G607" s="17"/>
+      <c r="P607" s="18"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="D608" s="17"/>
+      <c r="G608" s="17"/>
+      <c r="P608" s="18"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="D609" s="17"/>
+      <c r="G609" s="17"/>
+      <c r="P609" s="18"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="D610" s="17"/>
+      <c r="G610" s="17"/>
+      <c r="P610" s="18"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="D611" s="17"/>
+      <c r="G611" s="17"/>
+      <c r="P611" s="18"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="D612" s="17"/>
+      <c r="G612" s="17"/>
+      <c r="P612" s="18"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="D613" s="17"/>
+      <c r="G613" s="17"/>
+      <c r="P613" s="18"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="D614" s="17"/>
+      <c r="G614" s="17"/>
+      <c r="P614" s="18"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="D615" s="17"/>
+      <c r="G615" s="17"/>
+      <c r="P615" s="18"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="D616" s="17"/>
+      <c r="G616" s="17"/>
+      <c r="P616" s="18"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="D617" s="17"/>
+      <c r="G617" s="17"/>
+      <c r="P617" s="18"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="D618" s="17"/>
+      <c r="G618" s="17"/>
+      <c r="P618" s="18"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="D619" s="17"/>
+      <c r="G619" s="17"/>
+      <c r="P619" s="18"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="D620" s="17"/>
+      <c r="G620" s="17"/>
+      <c r="P620" s="18"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="D621" s="17"/>
+      <c r="G621" s="17"/>
+      <c r="P621" s="18"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="D622" s="17"/>
+      <c r="G622" s="17"/>
+      <c r="P622" s="18"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="D623" s="17"/>
+      <c r="G623" s="17"/>
+      <c r="P623" s="18"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="D624" s="17"/>
+      <c r="G624" s="17"/>
+      <c r="P624" s="18"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="D625" s="17"/>
+      <c r="G625" s="17"/>
+      <c r="P625" s="18"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="D626" s="17"/>
+      <c r="G626" s="17"/>
+      <c r="P626" s="18"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="D627" s="17"/>
+      <c r="G627" s="17"/>
+      <c r="P627" s="18"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="D628" s="17"/>
+      <c r="G628" s="17"/>
+      <c r="P628" s="18"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="D629" s="17"/>
+      <c r="G629" s="17"/>
+      <c r="P629" s="18"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="D630" s="17"/>
+      <c r="G630" s="17"/>
+      <c r="P630" s="18"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="D631" s="17"/>
+      <c r="G631" s="17"/>
+      <c r="P631" s="18"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="D632" s="17"/>
+      <c r="G632" s="17"/>
+      <c r="P632" s="18"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="D633" s="17"/>
+      <c r="G633" s="17"/>
+      <c r="P633" s="18"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="D634" s="17"/>
+      <c r="G634" s="17"/>
+      <c r="P634" s="18"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="D635" s="17"/>
+      <c r="G635" s="17"/>
+      <c r="P635" s="18"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="D636" s="17"/>
+      <c r="G636" s="17"/>
+      <c r="P636" s="18"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="D637" s="17"/>
+      <c r="G637" s="17"/>
+      <c r="P637" s="18"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="D638" s="17"/>
+      <c r="G638" s="17"/>
+      <c r="P638" s="18"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="D639" s="17"/>
+      <c r="G639" s="17"/>
+      <c r="P639" s="18"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="D640" s="17"/>
+      <c r="G640" s="17"/>
+      <c r="P640" s="18"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="D641" s="17"/>
+      <c r="G641" s="17"/>
+      <c r="P641" s="18"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="D642" s="17"/>
+      <c r="G642" s="17"/>
+      <c r="P642" s="18"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="D643" s="17"/>
+      <c r="G643" s="17"/>
+      <c r="P643" s="18"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="D644" s="17"/>
+      <c r="G644" s="17"/>
+      <c r="P644" s="18"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="D645" s="17"/>
+      <c r="G645" s="17"/>
+      <c r="P645" s="18"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="D646" s="17"/>
+      <c r="G646" s="17"/>
+      <c r="P646" s="18"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="D647" s="17"/>
+      <c r="G647" s="17"/>
+      <c r="P647" s="18"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="D648" s="17"/>
+      <c r="G648" s="17"/>
+      <c r="P648" s="18"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="D649" s="17"/>
+      <c r="G649" s="17"/>
+      <c r="P649" s="18"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="D650" s="17"/>
+      <c r="G650" s="17"/>
+      <c r="P650" s="18"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="D651" s="17"/>
+      <c r="G651" s="17"/>
+      <c r="P651" s="18"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="D652" s="17"/>
+      <c r="G652" s="17"/>
+      <c r="P652" s="18"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="D653" s="17"/>
+      <c r="G653" s="17"/>
+      <c r="P653" s="18"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="D654" s="17"/>
+      <c r="G654" s="17"/>
+      <c r="P654" s="18"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="D655" s="17"/>
+      <c r="G655" s="17"/>
+      <c r="P655" s="18"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="D656" s="17"/>
+      <c r="G656" s="17"/>
+      <c r="P656" s="18"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="D657" s="17"/>
+      <c r="G657" s="17"/>
+      <c r="P657" s="18"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="D658" s="17"/>
+      <c r="G658" s="17"/>
+      <c r="P658" s="18"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="D659" s="17"/>
+      <c r="G659" s="17"/>
+      <c r="P659" s="18"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="D660" s="17"/>
+      <c r="G660" s="17"/>
+      <c r="P660" s="18"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="D661" s="17"/>
+      <c r="G661" s="17"/>
+      <c r="P661" s="18"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="D662" s="17"/>
+      <c r="G662" s="17"/>
+      <c r="P662" s="18"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="D663" s="17"/>
+      <c r="G663" s="17"/>
+      <c r="P663" s="18"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="D664" s="17"/>
+      <c r="G664" s="17"/>
+      <c r="P664" s="18"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="D665" s="17"/>
+      <c r="G665" s="17"/>
+      <c r="P665" s="18"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="D666" s="17"/>
+      <c r="G666" s="17"/>
+      <c r="P666" s="18"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="D667" s="17"/>
+      <c r="G667" s="17"/>
+      <c r="P667" s="18"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="D668" s="17"/>
+      <c r="G668" s="17"/>
+      <c r="P668" s="18"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="D669" s="17"/>
+      <c r="G669" s="17"/>
+      <c r="P669" s="18"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="D670" s="17"/>
+      <c r="G670" s="17"/>
+      <c r="P670" s="18"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="D671" s="17"/>
+      <c r="G671" s="17"/>
+      <c r="P671" s="18"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="D672" s="17"/>
+      <c r="G672" s="17"/>
+      <c r="P672" s="18"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="D673" s="17"/>
+      <c r="G673" s="17"/>
+      <c r="P673" s="18"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="D674" s="17"/>
+      <c r="G674" s="17"/>
+      <c r="P674" s="18"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="D675" s="17"/>
+      <c r="G675" s="17"/>
+      <c r="P675" s="18"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="D676" s="17"/>
+      <c r="G676" s="17"/>
+      <c r="P676" s="18"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="D677" s="17"/>
+      <c r="G677" s="17"/>
+      <c r="P677" s="18"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="D678" s="17"/>
+      <c r="G678" s="17"/>
+      <c r="P678" s="18"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="D679" s="17"/>
+      <c r="G679" s="17"/>
+      <c r="P679" s="18"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="D680" s="17"/>
+      <c r="G680" s="17"/>
+      <c r="P680" s="18"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="D681" s="17"/>
+      <c r="G681" s="17"/>
+      <c r="P681" s="18"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="D682" s="17"/>
+      <c r="G682" s="17"/>
+      <c r="P682" s="18"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="D683" s="17"/>
+      <c r="G683" s="17"/>
+      <c r="P683" s="18"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="D684" s="17"/>
+      <c r="G684" s="17"/>
+      <c r="P684" s="18"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="D685" s="17"/>
+      <c r="G685" s="17"/>
+      <c r="P685" s="18"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="D686" s="17"/>
+      <c r="G686" s="17"/>
+      <c r="P686" s="18"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="D687" s="17"/>
+      <c r="G687" s="17"/>
+      <c r="P687" s="18"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="D688" s="17"/>
+      <c r="G688" s="17"/>
+      <c r="P688" s="18"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="D689" s="17"/>
+      <c r="G689" s="17"/>
+      <c r="P689" s="18"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="D690" s="17"/>
+      <c r="G690" s="17"/>
+      <c r="P690" s="18"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="D691" s="17"/>
+      <c r="G691" s="17"/>
+      <c r="P691" s="18"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="D692" s="17"/>
+      <c r="G692" s="17"/>
+      <c r="P692" s="18"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="D693" s="17"/>
+      <c r="G693" s="17"/>
+      <c r="P693" s="18"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="D694" s="17"/>
+      <c r="G694" s="17"/>
+      <c r="P694" s="18"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="D695" s="17"/>
+      <c r="G695" s="17"/>
+      <c r="P695" s="18"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="D696" s="17"/>
+      <c r="G696" s="17"/>
+      <c r="P696" s="18"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="D697" s="17"/>
+      <c r="G697" s="17"/>
+      <c r="P697" s="18"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="D698" s="17"/>
+      <c r="G698" s="17"/>
+      <c r="P698" s="18"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="D699" s="17"/>
+      <c r="G699" s="17"/>
+      <c r="P699" s="18"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="D700" s="17"/>
+      <c r="G700" s="17"/>
+      <c r="P700" s="18"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="D701" s="17"/>
+      <c r="G701" s="17"/>
+      <c r="P701" s="18"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="D702" s="17"/>
+      <c r="G702" s="17"/>
+      <c r="P702" s="18"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="D703" s="17"/>
+      <c r="G703" s="17"/>
+      <c r="P703" s="18"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="D704" s="17"/>
+      <c r="G704" s="17"/>
+      <c r="P704" s="18"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="D705" s="17"/>
+      <c r="G705" s="17"/>
+      <c r="P705" s="18"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="D706" s="17"/>
+      <c r="G706" s="17"/>
+      <c r="P706" s="18"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="D707" s="17"/>
+      <c r="G707" s="17"/>
+      <c r="P707" s="18"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="D708" s="17"/>
+      <c r="G708" s="17"/>
+      <c r="P708" s="18"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="D709" s="17"/>
+      <c r="G709" s="17"/>
+      <c r="P709" s="18"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="D710" s="17"/>
+      <c r="G710" s="17"/>
+      <c r="P710" s="18"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="D711" s="17"/>
+      <c r="G711" s="17"/>
+      <c r="P711" s="18"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="D712" s="17"/>
+      <c r="G712" s="17"/>
+      <c r="P712" s="18"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="D713" s="17"/>
+      <c r="G713" s="17"/>
+      <c r="P713" s="18"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="D714" s="17"/>
+      <c r="G714" s="17"/>
+      <c r="P714" s="18"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="D715" s="17"/>
+      <c r="G715" s="17"/>
+      <c r="P715" s="18"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="D716" s="17"/>
+      <c r="G716" s="17"/>
+      <c r="P716" s="18"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="D717" s="17"/>
+      <c r="G717" s="17"/>
+      <c r="P717" s="18"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="D718" s="17"/>
+      <c r="G718" s="17"/>
+      <c r="P718" s="18"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="D719" s="17"/>
+      <c r="G719" s="17"/>
+      <c r="P719" s="18"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="D720" s="17"/>
+      <c r="G720" s="17"/>
+      <c r="P720" s="18"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="D721" s="17"/>
+      <c r="G721" s="17"/>
+      <c r="P721" s="18"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="D722" s="17"/>
+      <c r="G722" s="17"/>
+      <c r="P722" s="18"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="D723" s="17"/>
+      <c r="G723" s="17"/>
+      <c r="P723" s="18"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="D724" s="17"/>
+      <c r="G724" s="17"/>
+      <c r="P724" s="18"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="D725" s="17"/>
+      <c r="G725" s="17"/>
+      <c r="P725" s="18"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="D726" s="17"/>
+      <c r="G726" s="17"/>
+      <c r="P726" s="18"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="D727" s="17"/>
+      <c r="G727" s="17"/>
+      <c r="P727" s="18"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="D728" s="17"/>
+      <c r="G728" s="17"/>
+      <c r="P728" s="18"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="D729" s="17"/>
+      <c r="G729" s="17"/>
+      <c r="P729" s="18"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="D730" s="17"/>
+      <c r="G730" s="17"/>
+      <c r="P730" s="18"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="D731" s="17"/>
+      <c r="G731" s="17"/>
+      <c r="P731" s="18"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="D732" s="17"/>
+      <c r="G732" s="17"/>
+      <c r="P732" s="18"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="D733" s="17"/>
+      <c r="G733" s="17"/>
+      <c r="P733" s="18"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="D734" s="17"/>
+      <c r="G734" s="17"/>
+      <c r="P734" s="18"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="D735" s="17"/>
+      <c r="G735" s="17"/>
+      <c r="P735" s="18"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="D736" s="17"/>
+      <c r="G736" s="17"/>
+      <c r="P736" s="18"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="D737" s="17"/>
+      <c r="G737" s="17"/>
+      <c r="P737" s="18"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="D738" s="17"/>
+      <c r="G738" s="17"/>
+      <c r="P738" s="18"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="D739" s="17"/>
+      <c r="G739" s="17"/>
+      <c r="P739" s="18"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="D740" s="17"/>
+      <c r="G740" s="17"/>
+      <c r="P740" s="18"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="D741" s="17"/>
+      <c r="G741" s="17"/>
+      <c r="P741" s="18"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="D742" s="17"/>
+      <c r="G742" s="17"/>
+      <c r="P742" s="18"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="D743" s="17"/>
+      <c r="G743" s="17"/>
+      <c r="P743" s="18"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="D744" s="17"/>
+      <c r="G744" s="17"/>
+      <c r="P744" s="18"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="D745" s="17"/>
+      <c r="G745" s="17"/>
+      <c r="P745" s="18"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="D746" s="17"/>
+      <c r="G746" s="17"/>
+      <c r="P746" s="18"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="D747" s="17"/>
+      <c r="G747" s="17"/>
+      <c r="P747" s="18"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="D748" s="17"/>
+      <c r="G748" s="17"/>
+      <c r="P748" s="18"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="D749" s="17"/>
+      <c r="G749" s="17"/>
+      <c r="P749" s="18"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="D750" s="17"/>
+      <c r="G750" s="17"/>
+      <c r="P750" s="18"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="D751" s="17"/>
+      <c r="G751" s="17"/>
+      <c r="P751" s="18"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="D752" s="17"/>
+      <c r="G752" s="17"/>
+      <c r="P752" s="18"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="D753" s="17"/>
+      <c r="G753" s="17"/>
+      <c r="P753" s="18"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="D754" s="17"/>
+      <c r="G754" s="17"/>
+      <c r="P754" s="18"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="D755" s="17"/>
+      <c r="G755" s="17"/>
+      <c r="P755" s="18"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="D756" s="17"/>
+      <c r="G756" s="17"/>
+      <c r="P756" s="18"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="D757" s="17"/>
+      <c r="G757" s="17"/>
+      <c r="P757" s="18"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="D758" s="17"/>
+      <c r="G758" s="17"/>
+      <c r="P758" s="18"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="D759" s="17"/>
+      <c r="G759" s="17"/>
+      <c r="P759" s="18"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="D760" s="17"/>
+      <c r="G760" s="17"/>
+      <c r="P760" s="18"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="D761" s="17"/>
+      <c r="G761" s="17"/>
+      <c r="P761" s="18"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="D762" s="17"/>
+      <c r="G762" s="17"/>
+      <c r="P762" s="18"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="D763" s="17"/>
+      <c r="G763" s="17"/>
+      <c r="P763" s="18"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="D764" s="17"/>
+      <c r="G764" s="17"/>
+      <c r="P764" s="18"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="D765" s="17"/>
+      <c r="G765" s="17"/>
+      <c r="P765" s="18"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="D766" s="17"/>
+      <c r="G766" s="17"/>
+      <c r="P766" s="18"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="D767" s="17"/>
+      <c r="G767" s="17"/>
+      <c r="P767" s="18"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="D768" s="17"/>
+      <c r="G768" s="17"/>
+      <c r="P768" s="18"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="D769" s="17"/>
+      <c r="G769" s="17"/>
+      <c r="P769" s="18"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="D770" s="17"/>
+      <c r="G770" s="17"/>
+      <c r="P770" s="18"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="D771" s="17"/>
+      <c r="G771" s="17"/>
+      <c r="P771" s="18"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="D772" s="17"/>
+      <c r="G772" s="17"/>
+      <c r="P772" s="18"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="D773" s="17"/>
+      <c r="G773" s="17"/>
+      <c r="P773" s="18"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="D774" s="17"/>
+      <c r="G774" s="17"/>
+      <c r="P774" s="18"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="D775" s="17"/>
+      <c r="G775" s="17"/>
+      <c r="P775" s="18"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="D776" s="17"/>
+      <c r="G776" s="17"/>
+      <c r="P776" s="18"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="D777" s="17"/>
+      <c r="G777" s="17"/>
+      <c r="P777" s="18"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="D778" s="17"/>
+      <c r="G778" s="17"/>
+      <c r="P778" s="18"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="D779" s="17"/>
+      <c r="G779" s="17"/>
+      <c r="P779" s="18"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="D780" s="17"/>
+      <c r="G780" s="17"/>
+      <c r="P780" s="18"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="D781" s="17"/>
+      <c r="G781" s="17"/>
+      <c r="P781" s="18"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="D782" s="17"/>
+      <c r="G782" s="17"/>
+      <c r="P782" s="18"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="D783" s="17"/>
+      <c r="G783" s="17"/>
+      <c r="P783" s="18"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="D784" s="17"/>
+      <c r="G784" s="17"/>
+      <c r="P784" s="18"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="D785" s="17"/>
+      <c r="G785" s="17"/>
+      <c r="P785" s="18"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="D786" s="17"/>
+      <c r="G786" s="17"/>
+      <c r="P786" s="18"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="D787" s="17"/>
+      <c r="G787" s="17"/>
+      <c r="P787" s="18"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="D788" s="17"/>
+      <c r="G788" s="17"/>
+      <c r="P788" s="18"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="D789" s="17"/>
+      <c r="G789" s="17"/>
+      <c r="P789" s="18"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="D790" s="17"/>
+      <c r="G790" s="17"/>
+      <c r="P790" s="18"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="D791" s="17"/>
+      <c r="G791" s="17"/>
+      <c r="P791" s="18"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="D792" s="17"/>
+      <c r="G792" s="17"/>
+      <c r="P792" s="18"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="D793" s="17"/>
+      <c r="G793" s="17"/>
+      <c r="P793" s="18"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="D794" s="17"/>
+      <c r="G794" s="17"/>
+      <c r="P794" s="18"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="D795" s="17"/>
+      <c r="G795" s="17"/>
+      <c r="P795" s="18"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="D796" s="17"/>
+      <c r="G796" s="17"/>
+      <c r="P796" s="18"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="D797" s="17"/>
+      <c r="G797" s="17"/>
+      <c r="P797" s="18"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="D798" s="17"/>
+      <c r="G798" s="17"/>
+      <c r="P798" s="18"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="D799" s="17"/>
+      <c r="G799" s="17"/>
+      <c r="P799" s="18"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="D800" s="17"/>
+      <c r="G800" s="17"/>
+      <c r="P800" s="18"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="D801" s="17"/>
+      <c r="G801" s="17"/>
+      <c r="P801" s="18"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="D802" s="17"/>
+      <c r="G802" s="17"/>
+      <c r="P802" s="18"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="D803" s="17"/>
+      <c r="G803" s="17"/>
+      <c r="P803" s="18"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="D804" s="17"/>
+      <c r="G804" s="17"/>
+      <c r="P804" s="18"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="D805" s="17"/>
+      <c r="G805" s="17"/>
+      <c r="P805" s="18"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="D806" s="17"/>
+      <c r="G806" s="17"/>
+      <c r="P806" s="18"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="D807" s="17"/>
+      <c r="G807" s="17"/>
+      <c r="P807" s="18"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="D808" s="17"/>
+      <c r="G808" s="17"/>
+      <c r="P808" s="18"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="D809" s="17"/>
+      <c r="G809" s="17"/>
+      <c r="P809" s="18"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="D810" s="17"/>
+      <c r="G810" s="17"/>
+      <c r="P810" s="18"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="D811" s="17"/>
+      <c r="G811" s="17"/>
+      <c r="P811" s="18"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="D812" s="17"/>
+      <c r="G812" s="17"/>
+      <c r="P812" s="18"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="D813" s="17"/>
+      <c r="G813" s="17"/>
+      <c r="P813" s="18"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="D814" s="17"/>
+      <c r="G814" s="17"/>
+      <c r="P814" s="18"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="D815" s="17"/>
+      <c r="G815" s="17"/>
+      <c r="P815" s="18"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="D816" s="17"/>
+      <c r="G816" s="17"/>
+      <c r="P816" s="18"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="D817" s="17"/>
+      <c r="G817" s="17"/>
+      <c r="P817" s="18"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="D818" s="17"/>
+      <c r="G818" s="17"/>
+      <c r="P818" s="18"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="D819" s="17"/>
+      <c r="G819" s="17"/>
+      <c r="P819" s="18"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="D820" s="17"/>
+      <c r="G820" s="17"/>
+      <c r="P820" s="18"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="D821" s="17"/>
+      <c r="G821" s="17"/>
+      <c r="P821" s="18"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="D822" s="17"/>
+      <c r="G822" s="17"/>
+      <c r="P822" s="18"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="D823" s="17"/>
+      <c r="G823" s="17"/>
+      <c r="P823" s="18"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="D824" s="17"/>
+      <c r="G824" s="17"/>
+      <c r="P824" s="18"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="D825" s="17"/>
+      <c r="G825" s="17"/>
+      <c r="P825" s="18"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="D826" s="17"/>
+      <c r="G826" s="17"/>
+      <c r="P826" s="18"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="D827" s="17"/>
+      <c r="G827" s="17"/>
+      <c r="P827" s="18"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="D828" s="17"/>
+      <c r="G828" s="17"/>
+      <c r="P828" s="18"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="D829" s="17"/>
+      <c r="G829" s="17"/>
+      <c r="P829" s="18"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="D830" s="17"/>
+      <c r="G830" s="17"/>
+      <c r="P830" s="18"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="D831" s="17"/>
+      <c r="G831" s="17"/>
+      <c r="P831" s="18"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="D832" s="17"/>
+      <c r="G832" s="17"/>
+      <c r="P832" s="18"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="D833" s="17"/>
+      <c r="G833" s="17"/>
+      <c r="P833" s="18"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="D834" s="17"/>
+      <c r="G834" s="17"/>
+      <c r="P834" s="18"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="D835" s="17"/>
+      <c r="G835" s="17"/>
+      <c r="P835" s="18"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="D836" s="17"/>
+      <c r="G836" s="17"/>
+      <c r="P836" s="18"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="D837" s="17"/>
+      <c r="G837" s="17"/>
+      <c r="P837" s="18"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="D838" s="17"/>
+      <c r="G838" s="17"/>
+      <c r="P838" s="18"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="D839" s="17"/>
+      <c r="G839" s="17"/>
+      <c r="P839" s="18"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="D840" s="17"/>
+      <c r="G840" s="17"/>
+      <c r="P840" s="18"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="D841" s="17"/>
+      <c r="G841" s="17"/>
+      <c r="P841" s="18"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="D842" s="17"/>
+      <c r="G842" s="17"/>
+      <c r="P842" s="18"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="D843" s="17"/>
+      <c r="G843" s="17"/>
+      <c r="P843" s="18"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="D844" s="17"/>
+      <c r="G844" s="17"/>
+      <c r="P844" s="18"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="D845" s="17"/>
+      <c r="G845" s="17"/>
+      <c r="P845" s="18"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="D846" s="17"/>
+      <c r="G846" s="17"/>
+      <c r="P846" s="18"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="D847" s="17"/>
+      <c r="G847" s="17"/>
+      <c r="P847" s="18"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="D848" s="17"/>
+      <c r="G848" s="17"/>
+      <c r="P848" s="18"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="D849" s="17"/>
+      <c r="G849" s="17"/>
+      <c r="P849" s="18"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="D850" s="17"/>
+      <c r="G850" s="17"/>
+      <c r="P850" s="18"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="D851" s="17"/>
+      <c r="G851" s="17"/>
+      <c r="P851" s="18"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="D852" s="17"/>
+      <c r="G852" s="17"/>
+      <c r="P852" s="18"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="D853" s="17"/>
+      <c r="G853" s="17"/>
+      <c r="P853" s="18"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="D854" s="17"/>
+      <c r="G854" s="17"/>
+      <c r="P854" s="18"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="D855" s="17"/>
+      <c r="G855" s="17"/>
+      <c r="P855" s="18"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="D856" s="17"/>
+      <c r="G856" s="17"/>
+      <c r="P856" s="18"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="D857" s="17"/>
+      <c r="G857" s="17"/>
+      <c r="P857" s="18"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="D858" s="17"/>
+      <c r="G858" s="17"/>
+      <c r="P858" s="18"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="D859" s="17"/>
+      <c r="G859" s="17"/>
+      <c r="P859" s="18"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="D860" s="17"/>
+      <c r="G860" s="17"/>
+      <c r="P860" s="18"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="D861" s="17"/>
+      <c r="G861" s="17"/>
+      <c r="P861" s="18"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="D862" s="17"/>
+      <c r="G862" s="17"/>
+      <c r="P862" s="18"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="D863" s="17"/>
+      <c r="G863" s="17"/>
+      <c r="P863" s="18"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="D864" s="17"/>
+      <c r="G864" s="17"/>
+      <c r="P864" s="18"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="D865" s="17"/>
+      <c r="G865" s="17"/>
+      <c r="P865" s="18"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="D866" s="17"/>
+      <c r="G866" s="17"/>
+      <c r="P866" s="18"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="D867" s="17"/>
+      <c r="G867" s="17"/>
+      <c r="P867" s="18"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="D868" s="17"/>
+      <c r="G868" s="17"/>
+      <c r="P868" s="18"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="D869" s="17"/>
+      <c r="G869" s="17"/>
+      <c r="P869" s="18"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="D870" s="17"/>
+      <c r="G870" s="17"/>
+      <c r="P870" s="18"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="D871" s="17"/>
+      <c r="G871" s="17"/>
+      <c r="P871" s="18"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="D872" s="17"/>
+      <c r="G872" s="17"/>
+      <c r="P872" s="18"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="D873" s="17"/>
+      <c r="G873" s="17"/>
+      <c r="P873" s="18"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="D874" s="17"/>
+      <c r="G874" s="17"/>
+      <c r="P874" s="18"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="D875" s="17"/>
+      <c r="G875" s="17"/>
+      <c r="P875" s="18"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="D876" s="17"/>
+      <c r="G876" s="17"/>
+      <c r="P876" s="18"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="D877" s="17"/>
+      <c r="G877" s="17"/>
+      <c r="P877" s="18"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="D878" s="17"/>
+      <c r="G878" s="17"/>
+      <c r="P878" s="18"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="D879" s="17"/>
+      <c r="G879" s="17"/>
+      <c r="P879" s="18"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="D880" s="17"/>
+      <c r="G880" s="17"/>
+      <c r="P880" s="18"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="D881" s="17"/>
+      <c r="G881" s="17"/>
+      <c r="P881" s="18"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="D882" s="17"/>
+      <c r="G882" s="17"/>
+      <c r="P882" s="18"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="D883" s="17"/>
+      <c r="G883" s="17"/>
+      <c r="P883" s="18"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="D884" s="17"/>
+      <c r="G884" s="17"/>
+      <c r="P884" s="18"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="D885" s="17"/>
+      <c r="G885" s="17"/>
+      <c r="P885" s="18"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="D886" s="17"/>
+      <c r="G886" s="17"/>
+      <c r="P886" s="18"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="D887" s="17"/>
+      <c r="G887" s="17"/>
+      <c r="P887" s="18"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="D888" s="17"/>
+      <c r="G888" s="17"/>
+      <c r="P888" s="18"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="D889" s="17"/>
+      <c r="G889" s="17"/>
+      <c r="P889" s="18"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="D890" s="17"/>
+      <c r="G890" s="17"/>
+      <c r="P890" s="18"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="D891" s="17"/>
+      <c r="G891" s="17"/>
+      <c r="P891" s="18"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="D892" s="17"/>
+      <c r="G892" s="17"/>
+      <c r="P892" s="18"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="D893" s="17"/>
+      <c r="G893" s="17"/>
+      <c r="P893" s="18"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="D894" s="17"/>
+      <c r="G894" s="17"/>
+      <c r="P894" s="18"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="D895" s="17"/>
+      <c r="G895" s="17"/>
+      <c r="P895" s="18"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="D896" s="17"/>
+      <c r="G896" s="17"/>
+      <c r="P896" s="18"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="D897" s="17"/>
+      <c r="G897" s="17"/>
+      <c r="P897" s="18"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="D898" s="17"/>
+      <c r="G898" s="17"/>
+      <c r="P898" s="18"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="D899" s="17"/>
+      <c r="G899" s="17"/>
+      <c r="P899" s="18"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="D900" s="17"/>
+      <c r="G900" s="17"/>
+      <c r="P900" s="18"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="D901" s="17"/>
+      <c r="G901" s="17"/>
+      <c r="P901" s="18"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="D902" s="17"/>
+      <c r="G902" s="17"/>
+      <c r="P902" s="18"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="D903" s="17"/>
+      <c r="G903" s="17"/>
+      <c r="P903" s="18"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="D904" s="17"/>
+      <c r="G904" s="17"/>
+      <c r="P904" s="18"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="D905" s="17"/>
+      <c r="G905" s="17"/>
+      <c r="P905" s="18"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="D906" s="17"/>
+      <c r="G906" s="17"/>
+      <c r="P906" s="18"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="D907" s="17"/>
+      <c r="G907" s="17"/>
+      <c r="P907" s="18"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="D908" s="17"/>
+      <c r="G908" s="17"/>
+      <c r="P908" s="18"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="D909" s="17"/>
+      <c r="G909" s="17"/>
+      <c r="P909" s="18"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="D910" s="17"/>
+      <c r="G910" s="17"/>
+      <c r="P910" s="18"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="D911" s="17"/>
+      <c r="G911" s="17"/>
+      <c r="P911" s="18"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="D912" s="17"/>
+      <c r="G912" s="17"/>
+      <c r="P912" s="18"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="D913" s="17"/>
+      <c r="G913" s="17"/>
+      <c r="P913" s="18"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="D914" s="17"/>
+      <c r="G914" s="17"/>
+      <c r="P914" s="18"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="D915" s="17"/>
+      <c r="G915" s="17"/>
+      <c r="P915" s="18"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="D916" s="17"/>
+      <c r="G916" s="17"/>
+      <c r="P916" s="18"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="D917" s="17"/>
+      <c r="G917" s="17"/>
+      <c r="P917" s="18"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="D918" s="17"/>
+      <c r="G918" s="17"/>
+      <c r="P918" s="18"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="D919" s="17"/>
+      <c r="G919" s="17"/>
+      <c r="P919" s="18"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="D920" s="17"/>
+      <c r="G920" s="17"/>
+      <c r="P920" s="18"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="D921" s="17"/>
+      <c r="G921" s="17"/>
+      <c r="P921" s="18"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="D922" s="17"/>
+      <c r="G922" s="17"/>
+      <c r="P922" s="18"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="D923" s="17"/>
+      <c r="G923" s="17"/>
+      <c r="P923" s="18"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="D924" s="17"/>
+      <c r="G924" s="17"/>
+      <c r="P924" s="18"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="D925" s="17"/>
+      <c r="G925" s="17"/>
+      <c r="P925" s="18"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="D926" s="17"/>
+      <c r="G926" s="17"/>
+      <c r="P926" s="18"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="D927" s="17"/>
+      <c r="G927" s="17"/>
+      <c r="P927" s="18"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="D928" s="17"/>
+      <c r="G928" s="17"/>
+      <c r="P928" s="18"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="D929" s="17"/>
+      <c r="G929" s="17"/>
+      <c r="P929" s="18"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="D930" s="17"/>
+      <c r="G930" s="17"/>
+      <c r="P930" s="18"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="D931" s="17"/>
+      <c r="G931" s="17"/>
+      <c r="P931" s="18"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="D932" s="17"/>
+      <c r="G932" s="17"/>
+      <c r="P932" s="18"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="D933" s="17"/>
+      <c r="G933" s="17"/>
+      <c r="P933" s="18"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="D934" s="17"/>
+      <c r="G934" s="17"/>
+      <c r="P934" s="18"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="D935" s="17"/>
+      <c r="G935" s="17"/>
+      <c r="P935" s="18"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="D936" s="17"/>
+      <c r="G936" s="17"/>
+      <c r="P936" s="18"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="D937" s="17"/>
+      <c r="G937" s="17"/>
+      <c r="P937" s="18"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="D938" s="17"/>
+      <c r="G938" s="17"/>
+      <c r="P938" s="18"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="D939" s="17"/>
+      <c r="G939" s="17"/>
+      <c r="P939" s="18"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="D940" s="17"/>
+      <c r="G940" s="17"/>
+      <c r="P940" s="18"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="D941" s="17"/>
+      <c r="G941" s="17"/>
+      <c r="P941" s="18"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="D942" s="17"/>
+      <c r="G942" s="17"/>
+      <c r="P942" s="18"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="D943" s="17"/>
+      <c r="G943" s="17"/>
+      <c r="P943" s="18"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="D944" s="17"/>
+      <c r="G944" s="17"/>
+      <c r="P944" s="18"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="D945" s="17"/>
+      <c r="G945" s="17"/>
+      <c r="P945" s="18"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="D946" s="17"/>
+      <c r="G946" s="17"/>
+      <c r="P946" s="18"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="D947" s="17"/>
+      <c r="G947" s="17"/>
+      <c r="P947" s="18"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="D948" s="17"/>
+      <c r="G948" s="17"/>
+      <c r="P948" s="18"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="D949" s="17"/>
+      <c r="G949" s="17"/>
+      <c r="P949" s="18"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="D950" s="17"/>
+      <c r="G950" s="17"/>
+      <c r="P950" s="18"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="D951" s="17"/>
+      <c r="G951" s="17"/>
+      <c r="P951" s="18"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="D952" s="17"/>
+      <c r="G952" s="17"/>
+      <c r="P952" s="18"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="D953" s="17"/>
+      <c r="G953" s="17"/>
+      <c r="P953" s="18"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="D954" s="17"/>
+      <c r="G954" s="17"/>
+      <c r="P954" s="18"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="D955" s="17"/>
+      <c r="G955" s="17"/>
+      <c r="P955" s="18"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="D956" s="17"/>
+      <c r="G956" s="17"/>
+      <c r="P956" s="18"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="D957" s="17"/>
+      <c r="G957" s="17"/>
+      <c r="P957" s="18"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="D958" s="17"/>
+      <c r="G958" s="17"/>
+      <c r="P958" s="18"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="D959" s="17"/>
+      <c r="G959" s="17"/>
+      <c r="P959" s="18"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="D960" s="17"/>
+      <c r="G960" s="17"/>
+      <c r="P960" s="18"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="D961" s="17"/>
+      <c r="G961" s="17"/>
+      <c r="P961" s="18"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="D962" s="17"/>
+      <c r="G962" s="17"/>
+      <c r="P962" s="18"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="D963" s="17"/>
+      <c r="G963" s="17"/>
+      <c r="P963" s="18"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="D964" s="17"/>
+      <c r="G964" s="17"/>
+      <c r="P964" s="18"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="D965" s="17"/>
+      <c r="G965" s="17"/>
+      <c r="P965" s="18"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="D966" s="17"/>
+      <c r="G966" s="17"/>
+      <c r="P966" s="18"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="D967" s="17"/>
+      <c r="G967" s="17"/>
+      <c r="P967" s="18"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="D968" s="17"/>
+      <c r="G968" s="17"/>
+      <c r="P968" s="18"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="D969" s="17"/>
+      <c r="G969" s="17"/>
+      <c r="P969" s="18"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="D970" s="17"/>
+      <c r="G970" s="17"/>
+      <c r="P970" s="18"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="D971" s="17"/>
+      <c r="G971" s="17"/>
+      <c r="P971" s="18"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="D972" s="17"/>
+      <c r="G972" s="17"/>
+      <c r="P972" s="18"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="D973" s="17"/>
+      <c r="G973" s="17"/>
+      <c r="P973" s="18"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="D974" s="17"/>
+      <c r="G974" s="17"/>
+      <c r="P974" s="18"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="D975" s="17"/>
+      <c r="G975" s="17"/>
+      <c r="P975" s="18"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="D976" s="17"/>
+      <c r="G976" s="17"/>
+      <c r="P976" s="18"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="D977" s="17"/>
+      <c r="G977" s="17"/>
+      <c r="P977" s="18"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="D978" s="17"/>
+      <c r="G978" s="17"/>
+      <c r="P978" s="18"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="D979" s="17"/>
+      <c r="G979" s="17"/>
+      <c r="P979" s="18"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="D980" s="17"/>
+      <c r="G980" s="17"/>
+      <c r="P980" s="18"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="D981" s="17"/>
+      <c r="G981" s="17"/>
+      <c r="P981" s="18"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="D982" s="17"/>
+      <c r="G982" s="17"/>
+      <c r="P982" s="18"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="D983" s="17"/>
+      <c r="G983" s="17"/>
+      <c r="P983" s="18"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="D984" s="17"/>
+      <c r="G984" s="17"/>
+      <c r="P984" s="18"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="D985" s="17"/>
+      <c r="G985" s="17"/>
+      <c r="P985" s="18"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="D986" s="17"/>
+      <c r="G986" s="17"/>
+      <c r="P986" s="18"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="D987" s="17"/>
+      <c r="G987" s="17"/>
+      <c r="P987" s="18"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="D988" s="17"/>
+      <c r="G988" s="17"/>
+      <c r="P988" s="18"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="D989" s="17"/>
+      <c r="G989" s="17"/>
+      <c r="P989" s="18"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="D990" s="17"/>
+      <c r="G990" s="17"/>
+      <c r="P990" s="18"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="D991" s="17"/>
+      <c r="G991" s="17"/>
+      <c r="P991" s="18"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="D992" s="17"/>
+      <c r="G992" s="17"/>
+      <c r="P992" s="18"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="D993" s="17"/>
+      <c r="G993" s="17"/>
+      <c r="P993" s="18"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="D994" s="17"/>
+      <c r="G994" s="17"/>
+      <c r="P994" s="18"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="D995" s="17"/>
+      <c r="G995" s="17"/>
+      <c r="P995" s="18"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="D996" s="17"/>
+      <c r="G996" s="17"/>
+      <c r="P996" s="18"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="D997" s="17"/>
+      <c r="G997" s="17"/>
+      <c r="P997" s="18"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="D998" s="17"/>
+      <c r="G998" s="17"/>
+      <c r="P998" s="18"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="D999" s="17"/>
+      <c r="G999" s="17"/>
+      <c r="P999" s="18"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="D1000" s="17"/>
+      <c r="G1000" s="17"/>
+      <c r="P1000" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/conf/TEMPLATE - SIPP Any asset other than land or property acquired from a connected party.xlsx
+++ b/conf/TEMPLATE - SIPP Any asset other than land or property acquired from a connected party.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ha/+AWqU0NQwUwNRrNc/IojkEcWXc9LzAvAEdXTd7iI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="5VjDRhFXxoL8JjRHCt/JT6Z7zcIGeY9ts0FUbF0L8X4="/>
     </ext>
   </extLst>
 </workbook>
@@ -255,7 +255,7 @@
   </si>
   <si>
     <t xml:space="preserve">Enter the total amount in GBP (in pounds and pence).
-Enter amount as whole number and to two decimal places.
+Enter amount to two decimal places.
 If the asset was not an acquisition, provide the total market value.
 If the asset was acquired more than 6 years ago provide the market value at the year of the return
 Mandatory question
@@ -462,7 +462,7 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
